--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.98450678639088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5745345479638976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7898450678639088</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.780359739921192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>77.63795534563448</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5660503263638625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7763795534563448</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7673435756743613</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.91062206420472</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.317154929965424</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.879106220642047</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8780137432110638</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.82188427235529</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6510531096408765</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7982188427235529</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7924284991157247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>67.17445652644054</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.051384991314262</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6717445652644054</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6447848825011049</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75.12452529866175</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7529429071272412</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7512452529866176</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7407873642048395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.11656675230753</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7628403420249621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7511656675230755</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7356502648545109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.9607176532669</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4887710438109935</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.789607176532669</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7862368570495775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.56107751797161</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8547376134083606</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.705610775179716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6925390314189779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.61736693223989</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5545960463505859</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.776173669322399</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7650288410984127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65.89806140191524</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.002724709227914</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6589806140191523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6445296438927609</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.79570757532505</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7471403988699119</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7379570757532504</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7366720543874983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.03331343696745</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2385497562170106</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9103331343696744</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9092548467841105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.01508663569754</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4658021921216762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8401508663569753</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.822152768904411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.43154352546303</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09648371897953137</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9643154352546303</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9640988566620384</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.67222611498946</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6083177755591006</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7867222611498945</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7773253979787056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.56207233626589</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.007493935028712</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5556207233626589</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5429557199103405</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.84163357814514</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8780704083542028</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6284163357814514</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.602079777564184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.67298160018684</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8240158418814343</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6667298160018685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6608792330664792</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57.47480514537322</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.030258290966352</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5747480514537322</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5644407998876937</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.28393844237407</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.039922426268458</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6328393844237407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5924199454363535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>54.74995458438222</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.031833896289269</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5474995458438221</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5366092820446298</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48.73381257623335</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.454057425633073</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4873381257623336</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4410436009198063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.29467382935839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.019968843460083</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5429467382935839</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5195336240147039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>49.96392702359017</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.150873098274072</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4996392702359017</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4703783426041201</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.1815327122207</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7801018095264832</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6518153271222069</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6419119164218458</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.69530013235409</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.111432620510459</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5669530013235409</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5497405204099625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.63547262519572</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8557988161842027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6063547262519572</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6051944441654216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.75022275279198</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5846496606866518</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7575022275279197</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7543534318462625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74.92253393195442</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6288923743428313</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7492253393195443</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7286815304483971</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>89.63278229050425</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2771419677883387</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8963278229050424</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8962524094350126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>62.42637623739535</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9116340943463083</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6242637623739536</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6070983052116808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_flat_prj_pseudoinverse_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="pseudoinverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pseudoinverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="pseudoinverse_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pseudoinverse_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="pseudoinverse_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="pseudoinverse_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pseudoinverse_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pseudoinverse_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.13621225097103</v>
+        <v>95.39823008849558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1050353278224065</v>
+        <v>0.1155634582604155</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9613621225097104</v>
+        <v>0.9539823008849557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9612458179548031</v>
+        <v>0.9536072984101022</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.59621623024421</v>
+        <v>95.16224188790559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2251622089723204</v>
+        <v>0.1502463324034105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9259621623024421</v>
+        <v>0.9516224188790561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.918733331251438</v>
+        <v>0.9502093639936353</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.84088097647904</v>
+        <v>97.13864306784662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1301737972828657</v>
+        <v>0.1052111427886605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9584088097647904</v>
+        <v>0.9713864306784661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9571839851125331</v>
+        <v>0.9705400453740139</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.71698717116931</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1681856333937806</v>
+        <v>0.1407123598173106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.937169871711693</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9347168336153631</v>
+        <v>0.9445866644256317</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.79622661095684</v>
+        <v>85.22279604494848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6839084841466199</v>
+        <v>0.3779329482582398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7379622661095684</v>
+        <v>0.8522279604494848</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7161625812289467</v>
+        <v>0.8412860181602942</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.75689236066056</v>
+        <v>89.94480921115235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3483502512836518</v>
+        <v>0.4048236209123085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8675689236066055</v>
+        <v>0.8994480921115235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8594314476664827</v>
+        <v>0.8794463644342413</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.094395280236</v>
+        <v>92.50737463126843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1944191645792065</v>
+        <v>0.1981940266305173</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9209439528023597</v>
+        <v>0.9250737463126845</v>
       </c>
       <c r="E8" t="n">
-        <v>0.920165806460572</v>
+        <v>0.9236369186068624</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.38955354285072</v>
+        <v>93.1858407079646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1826388550973206</v>
+        <v>0.1652797794210225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9238955354285071</v>
+        <v>0.931858407079646</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9221542514739498</v>
+        <v>0.9300864600402694</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.29793510324484</v>
+        <v>92.89085545722715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2396838506276254</v>
+        <v>0.1857501132243972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9129793510324484</v>
+        <v>0.9289085545722713</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9045000208439488</v>
+        <v>0.92689805554583</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.70796460176992</v>
+        <v>92.0353982300885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2960592294853844</v>
+        <v>0.1970793458213848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9070796460176991</v>
+        <v>0.9203539823008849</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8875577961392519</v>
+        <v>0.917711915987686</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.83185840707964</v>
+        <v>84.74926253687315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6559881132561713</v>
+        <v>0.5493152925387373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8283185840707965</v>
+        <v>0.8474926253687315</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8176623710441719</v>
+        <v>0.8400794313528295</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.16519174041298</v>
+        <v>87.78761061946902</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5664928492100444</v>
+        <v>0.672355777816847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8616519174041297</v>
+        <v>0.8778761061946903</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8472748277520118</v>
+        <v>0.8588786048948789</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.02654867256638</v>
+        <v>99.20353982300885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03670459946814995</v>
+        <v>0.03025577821365601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9902654867256636</v>
+        <v>0.9920353982300885</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9902738507494885</v>
+        <v>0.9920650273450029</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.70501474926253</v>
+        <v>99.17473334544417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01099638903032485</v>
+        <v>0.01906685233960819</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9970501474926253</v>
+        <v>0.9917473334544417</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9970564910439975</v>
+        <v>0.9917597662604363</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.047197640118</v>
+        <v>97.28613569321534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09133564272193553</v>
+        <v>0.06221885812070884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9604719764011799</v>
+        <v>0.9728613569321535</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9593301099037287</v>
+        <v>0.9724409215181489</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.27393835586813</v>
+        <v>93.08398284875589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2623422930918539</v>
+        <v>0.224933712437815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9127393835586813</v>
+        <v>0.9308398284875589</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9062299681493791</v>
+        <v>0.9262155237566577</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.11799410029498</v>
+        <v>89.67568923606606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2559798767072304</v>
+        <v>0.2815746710388339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9011799410029498</v>
+        <v>0.8967568923606606</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8993291033931137</v>
+        <v>0.8930714153361929</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.48374985942785</v>
+        <v>81.68435713111705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4370082815866529</v>
+        <v>0.4494470474478021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148374985942786</v>
+        <v>0.8168435713111706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8059075480509759</v>
+        <v>0.8068252937977982</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.41002949852506</v>
+        <v>93.42182890855457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2772880487044555</v>
+        <v>0.1643338611712049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8941002949852507</v>
+        <v>0.9342182890855458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8952540522026634</v>
+        <v>0.9344711230436646</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.63855223661105</v>
+        <v>87.40482184101938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.316663771464179</v>
+        <v>0.319458173510308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8663855223661103</v>
+        <v>0.8740482184101939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8663323246696919</v>
+        <v>0.8738318634666271</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.24462149326551</v>
+        <v>67.87982595005147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9426467060606228</v>
+        <v>1.085005654479998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6824462149326551</v>
+        <v>0.6787982595005146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6606605816034008</v>
+        <v>0.6509320029278547</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.19952594745629</v>
+        <v>86.14295971418439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4142978432122618</v>
+        <v>0.3722460743350288</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8519952594745629</v>
+        <v>0.8614295971418438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8448417488538912</v>
+        <v>0.8546801424481242</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.31336776269691</v>
+        <v>91.59551553214128</v>
       </c>
       <c r="C8" t="n">
-        <v>0.382283621954654</v>
+        <v>0.2279109152266756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8531336776269691</v>
+        <v>0.9159551553214129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8504488169813001</v>
+        <v>0.9142907120497019</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.50442477876106</v>
+        <v>91.20943952802359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2112690960988402</v>
+        <v>0.2237687461107271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9150442477876106</v>
+        <v>0.9120943952802361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9135866918891539</v>
+        <v>0.9076703972983242</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.2609711156671</v>
+        <v>87.93614131610136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2907440199827155</v>
+        <v>0.2887140091877275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8826097111566709</v>
+        <v>0.8793614131610135</v>
       </c>
       <c r="E10" t="n">
-        <v>0.879167742452478</v>
+        <v>0.8773840163758875</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.5108435194076</v>
+        <v>87.07981902957638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4539420841475172</v>
+        <v>0.4406036004642374</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8351084351940761</v>
+        <v>0.8707981902957638</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8243524159203321</v>
+        <v>0.8624786590182723</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.00155710689539</v>
+        <v>82.50737463126843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7352573580040673</v>
+        <v>0.6707851510630766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8000155710689538</v>
+        <v>0.8250737463126845</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8002735696447731</v>
+        <v>0.810350286252263</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.38955354285072</v>
+        <v>81.79975605325305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5472834995404507</v>
+        <v>0.6351277287661408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8238955354285071</v>
+        <v>0.8179975605325305</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8135754662765</v>
+        <v>0.8071966943217301</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.78171091445428</v>
+        <v>95.81120943952803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1096060461855814</v>
+        <v>0.1058008264775784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9578171091445429</v>
+        <v>0.9581120943952802</v>
       </c>
       <c r="E14" t="n">
-        <v>0.957247242215115</v>
+        <v>0.9583082130938184</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.53392330383481</v>
+        <v>92.35988200589971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1952452624882426</v>
+        <v>0.1777876628481105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9153392330383481</v>
+        <v>0.9235988200589971</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9125304688485926</v>
+        <v>0.9231982263228147</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.34218289085545</v>
+        <v>96.54867256637168</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09974710137460836</v>
+        <v>0.09121409987527235</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9634218289085545</v>
+        <v>0.9654867256637167</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9628823933660741</v>
+        <v>0.9651658260578962</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.38220053806693</v>
+        <v>87.53715285887709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.377950841167472</v>
+        <v>0.3689185481335147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8638220053806693</v>
+        <v>0.875371528588771</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8590926777578703</v>
+        <v>0.8693236581207313</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.72529174127803</v>
+        <v>83.15634218289085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4060737944867772</v>
+        <v>0.4669144375007211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8372529174127804</v>
+        <v>0.8315634218289085</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8330755236544609</v>
+        <v>0.8249940066983561</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.19084075121756</v>
+        <v>84.22590160814539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4756031303307585</v>
+        <v>0.4146933166775852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8119084075121756</v>
+        <v>0.842259016081454</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8127453911482517</v>
+        <v>0.838404957511767</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.31944913018279</v>
+        <v>90.35432832463948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3353276394448282</v>
+        <v>0.2274898838659283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8831944913018279</v>
+        <v>0.9035432832463949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.884178361139505</v>
+        <v>0.9019007283421357</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.80773190079499</v>
+        <v>75.01881504165262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4410295775781076</v>
+        <v>0.8067974976574381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8380773190079498</v>
+        <v>0.7501881504165262</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8331139054140797</v>
+        <v>0.7355304521608812</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.44169932265849</v>
+        <v>65.14026937949291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8718117864065181</v>
+        <v>0.9406670797616243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.704416993226585</v>
+        <v>0.651402693794929</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6838480675492784</v>
+        <v>0.6316923181137246</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.16046851616363</v>
+        <v>77.8349293679011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5979589284708102</v>
+        <v>0.5863216417996834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8016046851616363</v>
+        <v>0.7783492936790111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.792617844749139</v>
+        <v>0.7755962712936512</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.56149274647706</v>
+        <v>81.29880016263117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5829005846132834</v>
+        <v>0.5100707033649087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7856149274647705</v>
+        <v>0.8129880016263117</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7824179555407111</v>
+        <v>0.814873519490783</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.70760127682766</v>
+        <v>82.06904904021661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.55358014125765</v>
+        <v>0.4515520003876493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7870760127682765</v>
+        <v>0.8206904904021661</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7744993586728042</v>
+        <v>0.8103542855242287</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.83875293038867</v>
+        <v>85.16258791166014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470621339433516</v>
+        <v>0.3849310096663733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7983875293038867</v>
+        <v>0.8516258791166014</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7961209092563042</v>
+        <v>0.8471678537225789</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.88615818475938</v>
+        <v>83.77875241135304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4959944254015379</v>
+        <v>0.4673912982611606</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7988615818475939</v>
+        <v>0.8377875241135305</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7911808686082472</v>
+        <v>0.8291344527525734</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.99373697004299</v>
+        <v>79.35189750776391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.749672231846489</v>
+        <v>0.6670471207946926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7599373697004299</v>
+        <v>0.793518975077639</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7523404560179869</v>
+        <v>0.7828482165486927</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.0103374596666</v>
+        <v>81.83548300590834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7161004708070928</v>
+        <v>0.5309885760070756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7501033745966661</v>
+        <v>0.8183548300590836</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7360508519918013</v>
+        <v>0.8098498568879776</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.18948260798103</v>
+        <v>92.89085545722715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.165489990702675</v>
+        <v>0.2154153194004417</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9418948260798103</v>
+        <v>0.9289085545722713</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9422658171880315</v>
+        <v>0.9300204938845684</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.49973615688717</v>
+        <v>88.20076298237873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2489304656603054</v>
+        <v>0.3185753106534018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8949973615688716</v>
+        <v>0.8820076298237873</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8872201291023132</v>
+        <v>0.8805305416376207</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.34218289085545</v>
+        <v>92.9203539823009</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1266670957630974</v>
+        <v>0.2303871060527551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9634218289085545</v>
+        <v>0.9292035398230087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.962960704610294</v>
+        <v>0.9240624267291517</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.37833083907876</v>
+        <v>82.88260855774416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4825174401468965</v>
+        <v>0.4812828201234293</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8237833083907876</v>
+        <v>0.8288260855774415</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8176424096428807</v>
+        <v>0.8224640254199128</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.98450678639088</v>
+        <v>86.04737065199525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5745345479638976</v>
+        <v>0.3638522838863233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7898450678639088</v>
+        <v>0.8604737065199526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.780359739921192</v>
+        <v>0.8556472821440735</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.63795534563448</v>
+        <v>82.5205235339406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5660503263638625</v>
+        <v>0.4540987653963384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7763795534563448</v>
+        <v>0.8252052353394059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7673435756743613</v>
+        <v>0.8163204514984915</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.91062206420472</v>
+        <v>87.13933511535568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.317154929965424</v>
+        <v>0.3604483362209673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.879106220642047</v>
+        <v>0.8713933511535567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8780137432110638</v>
+        <v>0.8693644435448092</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.82188427235529</v>
+        <v>71.82518879921108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6510531096408765</v>
+        <v>0.8499428409462174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7982188427235529</v>
+        <v>0.7182518879921107</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7924284991157247</v>
+        <v>0.7013169432344032</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.17445652644054</v>
+        <v>60.31133487313904</v>
       </c>
       <c r="C6" t="n">
-        <v>1.051384991314262</v>
+        <v>1.133654410613235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6717445652644054</v>
+        <v>0.6031133487313904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6447848825011049</v>
+        <v>0.5724827299059247</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.12452529866175</v>
+        <v>74.59026462166628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7529429071272412</v>
+        <v>0.6537912330279748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7512452529866176</v>
+        <v>0.7459026462166628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7407873642048395</v>
+        <v>0.7471071139062103</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.11656675230753</v>
+        <v>77.94548395747367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7628403420249621</v>
+        <v>0.6452772210507344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7511656675230755</v>
+        <v>0.7794548395747368</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7356502648545109</v>
+        <v>0.7759871596597586</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.9607176532669</v>
+        <v>82.86256801529424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4887710438109935</v>
+        <v>0.4164084570016712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.789607176532669</v>
+        <v>0.8286256801529426</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7862368570495775</v>
+        <v>0.8266935817286271</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.56107751797161</v>
+        <v>84.10254413965518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8547376134083606</v>
+        <v>0.4267449769734715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.705610775179716</v>
+        <v>0.8410254413965518</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6925390314189779</v>
+        <v>0.8270850336789634</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.61736693223989</v>
+        <v>75.57054991825188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5545960463505859</v>
+        <v>0.7109773989378786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.776173669322399</v>
+        <v>0.7557054991825189</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7650288410984127</v>
+        <v>0.7463307644892461</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.89806140191524</v>
+        <v>74.95817437867109</v>
       </c>
       <c r="C12" t="n">
-        <v>1.002724709227914</v>
+        <v>0.7032769484911114</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6589806140191523</v>
+        <v>0.7495817437867109</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6445296438927609</v>
+        <v>0.7332911031746623</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.79570757532505</v>
+        <v>74.79035285772368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7471403988699119</v>
+        <v>0.7264376912266016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7379570757532504</v>
+        <v>0.7479035285772369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7366720543874983</v>
+        <v>0.7452478880010642</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.03331343696745</v>
+        <v>93.80600178202234</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2385497562170106</v>
+        <v>0.1558517178069451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9103331343696744</v>
+        <v>0.9380600178202233</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9092548467841105</v>
+        <v>0.9386156136569678</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.01508663569754</v>
+        <v>84.3362831858407</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4658021921216762</v>
+        <v>0.4563949236322212</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8401508663569753</v>
+        <v>0.843362831858407</v>
       </c>
       <c r="E15" t="n">
-        <v>0.822152768904411</v>
+        <v>0.8269737637411219</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.43154352546303</v>
+        <v>93.68887274111367</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09648371897953137</v>
+        <v>0.1607496362810101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9643154352546303</v>
+        <v>0.9368887274111367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9640988566620384</v>
+        <v>0.9344711631649207</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.67222611498946</v>
+        <v>80.29965657142363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6083177755591006</v>
+        <v>0.5478604560995134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7867222611498945</v>
+        <v>0.8029965657142363</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7773253979787056</v>
+        <v>0.7944623357019496</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.56207233626589</v>
+        <v>79.12438688915994</v>
       </c>
       <c r="C2" t="n">
-        <v>1.007493935028712</v>
+        <v>0.615088976547122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5556207233626589</v>
+        <v>0.7912438688915995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5429557199103405</v>
+        <v>0.7771747775768103</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.84163357814514</v>
+        <v>76.18249292813951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8780704083542028</v>
+        <v>0.5585485951237691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6284163357814514</v>
+        <v>0.7618249292813951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.602079777564184</v>
+        <v>0.7469318222196415</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.67298160018684</v>
+        <v>82.59933044403498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8240158418814343</v>
+        <v>0.4618160764376323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6667298160018685</v>
+        <v>0.8259933044403498</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6608792330664792</v>
+        <v>0.8223408940328026</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.47480514537322</v>
+        <v>67.24357477140805</v>
       </c>
       <c r="C5" t="n">
-        <v>1.030258290966352</v>
+        <v>0.9199185733217746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5747480514537322</v>
+        <v>0.6724357477140805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5644407998876937</v>
+        <v>0.6565443957407316</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.28393844237407</v>
+        <v>61.6778691857196</v>
       </c>
       <c r="C6" t="n">
-        <v>1.039922426268458</v>
+        <v>1.050128235295415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6328393844237407</v>
+        <v>0.6167786918571959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5924199454363535</v>
+        <v>0.5854148910958786</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.74995458438222</v>
+        <v>74.15730239880968</v>
       </c>
       <c r="C7" t="n">
-        <v>1.031833896289269</v>
+        <v>0.7306262370198965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5474995458438221</v>
+        <v>0.7415730239880968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5366092820446298</v>
+        <v>0.740041166028113</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.73381257623335</v>
+        <v>73.94804453325722</v>
       </c>
       <c r="C8" t="n">
-        <v>1.454057425633073</v>
+        <v>0.6688355210237205</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4873381257623336</v>
+        <v>0.7394804453325721</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4410436009198063</v>
+        <v>0.7331695615873685</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.29467382935839</v>
+        <v>71.28487270651131</v>
       </c>
       <c r="C9" t="n">
-        <v>1.019968843460083</v>
+        <v>0.7568099309806712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5429467382935839</v>
+        <v>0.7128487270651129</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5195336240147039</v>
+        <v>0.6921695587342844</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.96392702359017</v>
+        <v>77.09798527668924</v>
       </c>
       <c r="C10" t="n">
-        <v>1.150873098274072</v>
+        <v>0.5432949347576748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4996392702359017</v>
+        <v>0.7709798527668925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4703783426041201</v>
+        <v>0.7592174871572123</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.1815327122207</v>
+        <v>75.66120814193894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7801018095264832</v>
+        <v>0.6033559164963662</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6518153271222069</v>
+        <v>0.7566120814193894</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6419119164218458</v>
+        <v>0.7474407804029256</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.69530013235409</v>
+        <v>67.64894159984082</v>
       </c>
       <c r="C12" t="n">
-        <v>1.111432620510459</v>
+        <v>0.8214246993729224</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5669530013235409</v>
+        <v>0.6764894159984083</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5497405204099625</v>
+        <v>0.6708137816955058</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.63547262519572</v>
+        <v>71.46618915388542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8557988161842027</v>
+        <v>0.7937698997557163</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6063547262519572</v>
+        <v>0.7146618915388542</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6051944441654216</v>
+        <v>0.7017022189028327</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.75022275279198</v>
+        <v>90.68002318359156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5846496606866518</v>
+        <v>0.2651448114910939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7575022275279197</v>
+        <v>0.9068002318359156</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7543534318462625</v>
+        <v>0.9059509287359668</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.92253393195442</v>
+        <v>79.59290305279458</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6288923743428313</v>
+        <v>0.7028765784894858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7492253393195443</v>
+        <v>0.7959290305279458</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7286815304483971</v>
+        <v>0.7746763131917397</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.63278229050425</v>
+        <v>93.72027439683734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2771419677883387</v>
+        <v>0.1974206344447642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8963278229050424</v>
+        <v>0.9372027439683734</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8962524094350126</v>
+        <v>0.9365322744216134</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.42637623739535</v>
+        <v>76.13902657750788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9116340943463083</v>
+        <v>0.6459373080372016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6242637623739536</v>
+        <v>0.7613902657750788</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6070983052116808</v>
+        <v>0.7500080567682286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73.73567245391396</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6919481116036574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7373567245391397</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7272693764319407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.54597358108634</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6175432762131094</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7454597358108634</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7337198896013253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.21842749504754</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4782980964441473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8021842749504753</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8006981267335632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.72778311231066</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.095560738009711</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6172778311231066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6021954793193143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.90377079386499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9020594347268343</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65903770793865</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6342867142693976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69.35492521561605</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7999910185734431</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6935492521561606</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6841174546686302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.59924393809636</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.079336958021546</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6259924393809635</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5851060117209231</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.05264751425184</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8375320526460805</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6605264751425185</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.654342407127769</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.93918632514122</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.752959734822313</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6993918632514122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6856574315337177</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.05096929904238</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6767238341271877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7205096929904238</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7146379023513638</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.53418282165071</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9309306450809043</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6153418282165071</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6107932644117322</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.34244240867136</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9779123790562153</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6634244240867135</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6475326225074103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.12748380176299</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6354172019908826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7712748380176299</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7571128389586459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.92153046306629</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6125097127243255</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7892153046306629</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7706117058780593</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.69474649434684</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.253126703745996</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9269474649434682</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9258918857145046</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.51659904785795</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7561233265190902</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7151659904785798</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7022648740818865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.17878182337218</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8132007196545601</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6717878182337217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6670969324148359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.09514788190209</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6948260464395086</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6909514788190209</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6758058005822013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.17400669555965</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6098068351546924</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7517400669555965</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7513496447165697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.38979575947889</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.005755104124546</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6038979575947889</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5753182559097727</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>53.74492858934766</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.122042175848037</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5374492858934766</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.517647182890151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55.41509874652895</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.103265018264453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5541509874652896</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5411461114512901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49.81193608941254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.155652227004369</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4981193608941254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4919269070148508</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>64.42036695819168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.822049530595541</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6442036695819168</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6341107660761997</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>62.75867438299639</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8037435457110405</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6275867438299639</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6078242120310899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.35057396690283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7488529753871263</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6635057396690283</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6583295357461865</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.63286014584901</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9701841037720442</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5863286014584901</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5728885293923061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.49874998918676</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8444983974099159</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6549874998918676</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6388902259987645</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73.78229915483698</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6887931207815806</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7378229915483698</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7314003520504264</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.66936565195201</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5468035239521366</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7866936565195201</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7767844440665249</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.95483524943987</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2882411715885004</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8895483524943988</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8896261810110246</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.99182807233051</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.814514299712537</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6599182807233049</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.648676338756813</v>
       </c>
     </row>
   </sheetData>
